--- a/document/Keyword.xlsx
+++ b/document/Keyword.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="测试用例集合" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>测试步骤序号</t>
   </si>
@@ -39,239 +39,347 @@
     <t>open_browser</t>
   </si>
   <si>
+    <t>TestStep_02</t>
+  </si>
+  <si>
+    <t>访问被测试的网站：https://mail.126.com</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>https://mail.126.com</t>
+  </si>
+  <si>
+    <t>TestStep_03</t>
+  </si>
+  <si>
+    <t>切换框架</t>
+  </si>
+  <si>
+    <t>x-URS-iframe</t>
+  </si>
+  <si>
+    <t>TestStep_04</t>
+  </si>
+  <si>
+    <t>输入邮箱登录用户名</t>
+  </si>
+  <si>
+    <t>input_username</t>
+  </si>
+  <si>
+    <t>testemaillogin</t>
+  </si>
+  <si>
+    <t>TestStep_05</t>
+  </si>
+  <si>
+    <t>输入邮箱密码</t>
+  </si>
+  <si>
+    <t>input_password</t>
+  </si>
+  <si>
+    <t>ma1111de</t>
+  </si>
+  <si>
+    <t>TestStep_07</t>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+  </si>
+  <si>
+    <t>click_login</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>TestStep_06</t>
+  </si>
+  <si>
+    <t>切换到默认框架</t>
+  </si>
+  <si>
+    <t>TestStep_08</t>
+  </si>
+  <si>
+    <t>等待页面出现登录之后的退出链接</t>
+  </si>
+  <si>
+    <t>TestStep_09</t>
+  </si>
+  <si>
+    <t>点击写信链接</t>
+  </si>
+  <si>
+    <t>TestStep_10</t>
+  </si>
+  <si>
+    <t>等待页面上显示出收件人链接</t>
+  </si>
+  <si>
+    <t>TestStep_11</t>
+  </si>
+  <si>
+    <t>在收件人输入框中输入收件人的邮件地址</t>
+  </si>
+  <si>
+    <t>testman@126.com</t>
+  </si>
+  <si>
+    <t>TestStep_12</t>
+  </si>
+  <si>
+    <t>在邮件标题栏输入：这是一封测试邮件</t>
+  </si>
+  <si>
+    <t>这是一封邮件的标题</t>
+  </si>
+  <si>
+    <t>TestStep_13</t>
+  </si>
+  <si>
+    <t>按Tab键，将页面焦点从邮件标题框切换到输入框</t>
+  </si>
+  <si>
+    <t>TestStep_14</t>
+  </si>
+  <si>
+    <t>粘贴邮件正文</t>
+  </si>
+  <si>
+    <t>这是邮件的正文</t>
+  </si>
+  <si>
+    <t>TestStep_15</t>
+  </si>
+  <si>
+    <t>单击添加邮件按钮</t>
+  </si>
+  <si>
+    <t>TestStep_16</t>
+  </si>
+  <si>
+    <t>粘贴文件到文件上传输入框</t>
+  </si>
+  <si>
+    <t>D:\BugReport.txt</t>
+  </si>
+  <si>
+    <t>TestStep_17</t>
+  </si>
+  <si>
+    <t>按Enter键，上传文件</t>
+  </si>
+  <si>
+    <t>TestStep_18</t>
+  </si>
+  <si>
+    <t>等待一段时间上传文件</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>TestStep_19</t>
+  </si>
+  <si>
+    <t>点击发送邮件按钮</t>
+  </si>
+  <si>
+    <t>TestStep_20</t>
+  </si>
+  <si>
+    <t>等待邮件发送完成</t>
+  </si>
+  <si>
+    <t>TestStep_21</t>
+  </si>
+  <si>
+    <t>等待页面上显示成功的关键字</t>
+  </si>
+  <si>
+    <t>TestStep_22</t>
+  </si>
+  <si>
+    <t>断言是否包含发送成功关键字</t>
+  </si>
+  <si>
+    <t>发送成功</t>
+  </si>
+  <si>
+    <t>TestStep_23</t>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+  </si>
+  <si>
+    <t>close_browser</t>
+  </si>
+  <si>
+    <t>测试用例序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendMail01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_to_frame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_to_default</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitFor_Element</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_writeLetterLink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.logoutlink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.verifytitle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitFor_Element1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_recipients</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_mailSubject</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>press_tab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>paste_mailContent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_addAttachment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>paste_uploadFileName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>press_enter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_sendMailButton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitFor_Element2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendmailsuccesspage.successinfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assert_String</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>chrome</t>
-  </si>
-  <si>
-    <t>TestStep_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToHomePage01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开浏览器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>访问被测试的网站：https://mail.126.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言页面上二维码登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_browser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>navigate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assert_String</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_browser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>firefox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://mail.126.com</t>
-  </si>
-  <si>
-    <t>TestStep_03</t>
-  </si>
-  <si>
-    <t>切换框架</t>
-  </si>
-  <si>
-    <t>switch_to_frame</t>
-  </si>
-  <si>
-    <t>x-URS-iframe</t>
-  </si>
-  <si>
-    <t>TestStep_04</t>
-  </si>
-  <si>
-    <t>输入邮箱登录用户名</t>
-  </si>
-  <si>
-    <t>input_username</t>
-  </si>
-  <si>
-    <t>testemaillogin</t>
-  </si>
-  <si>
-    <t>TestStep_05</t>
-  </si>
-  <si>
-    <t>输入邮箱密码</t>
-  </si>
-  <si>
-    <t>input_password</t>
-  </si>
-  <si>
-    <t>ma1111de</t>
-  </si>
-  <si>
-    <t>TestStep_07</t>
-  </si>
-  <si>
-    <t>点击登录按钮</t>
-  </si>
-  <si>
-    <t>click_login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-  </si>
-  <si>
-    <t>TestStep_06</t>
-  </si>
-  <si>
-    <t>切换到默认框架</t>
-  </si>
-  <si>
-    <t>switch_to_default</t>
-  </si>
-  <si>
-    <t>TestStep_08</t>
-  </si>
-  <si>
-    <t>等待页面出现登录之后的退出链接</t>
-  </si>
-  <si>
-    <t>WaitFor_Element</t>
-  </si>
-  <si>
-    <t>TestStep_09</t>
-  </si>
-  <si>
-    <t>点击写信链接</t>
-  </si>
-  <si>
-    <t>click_writeLetterLink</t>
-  </si>
-  <si>
-    <t>TestStep_10</t>
-  </si>
-  <si>
-    <t>等待页面上显示出收件人链接</t>
-  </si>
-  <si>
-    <t>writemailpage.recipientslink</t>
-  </si>
-  <si>
-    <t>TestStep_11</t>
-  </si>
-  <si>
-    <t>在收件人输入框中输入收件人的邮件地址</t>
-  </si>
-  <si>
-    <t>input_recipients</t>
-  </si>
-  <si>
-    <t>testman@126.com</t>
-  </si>
-  <si>
-    <t>TestStep_12</t>
-  </si>
-  <si>
-    <t>在邮件标题栏输入：这是一封测试邮件</t>
-  </si>
-  <si>
-    <t>input_mailSubject</t>
-  </si>
-  <si>
-    <t>这是一封邮件的标题</t>
-  </si>
-  <si>
-    <t>TestStep_13</t>
-  </si>
-  <si>
-    <t>按Tab键，将页面焦点从邮件标题框切换到输入框</t>
-  </si>
-  <si>
-    <t>press_tab</t>
-  </si>
-  <si>
-    <t>TestStep_14</t>
-  </si>
-  <si>
-    <t>粘贴邮件正文</t>
-  </si>
-  <si>
-    <t>paste_mailContent</t>
-  </si>
-  <si>
-    <t>这是邮件的正文</t>
-  </si>
-  <si>
-    <t>TestStep_15</t>
-  </si>
-  <si>
-    <t>单击添加邮件按钮</t>
-  </si>
-  <si>
-    <t>click_addAttachment</t>
-  </si>
-  <si>
-    <t>TestStep_16</t>
-  </si>
-  <si>
-    <t>粘贴文件到文件上传输入框</t>
-  </si>
-  <si>
-    <t>paste_uploadFileName</t>
-  </si>
-  <si>
-    <t>D:\BugReport.txt</t>
-  </si>
-  <si>
-    <t>TestStep_17</t>
-  </si>
-  <si>
-    <t>按Enter键，上传文件</t>
-  </si>
-  <si>
-    <t>press_enter</t>
-  </si>
-  <si>
-    <t>TestStep_18</t>
-  </si>
-  <si>
-    <t>等待一段时间上传文件</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>TestStep_19</t>
-  </si>
-  <si>
-    <t>点击发送邮件按钮</t>
-  </si>
-  <si>
-    <t>click_sendMailButton</t>
-  </si>
-  <si>
-    <t>TestStep_20</t>
-  </si>
-  <si>
-    <t>等待邮件发送完成</t>
-  </si>
-  <si>
-    <t>TestStep_21</t>
-  </si>
-  <si>
-    <t>等待页面上显示成功的关键字</t>
-  </si>
-  <si>
-    <t>sendmailsuccesspage.succinfo</t>
-  </si>
-  <si>
-    <t>TestStep_22</t>
-  </si>
-  <si>
-    <t>断言是否包含发送成功关键字</t>
-  </si>
-  <si>
-    <t>Assert_String</t>
-  </si>
-  <si>
-    <t>发送成功</t>
-  </si>
-  <si>
-    <t>TestStep_23</t>
-  </si>
-  <si>
-    <t>关闭浏览器</t>
-  </si>
-  <si>
-    <t>close_browser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试用例序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SendMail01</t>
+    <t>测试用例描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否运行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送一封带有附件的邮件给自己</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问126邮箱首页</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +416,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,10 +442,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,9 +454,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -638,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,7 +776,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -672,7 +793,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -684,291 +805,291 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4000</v>
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1">
         <v>5000</v>
@@ -976,33 +1097,33 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E21" s="1">
         <v>5000</v>
@@ -1010,53 +1131,121 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1064,6 +1253,7 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" tooltip="https://mail.126.com/"/>
     <hyperlink ref="E12" r:id="rId2" tooltip="mailto:testman@126.com"/>
+    <hyperlink ref="E26" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1071,12 +1261,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
